--- a/Data/mcquarrie_real_nom_stock_bond_returns_1793_2024.xlsx
+++ b/Data/mcquarrie_real_nom_stock_bond_returns_1793_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cherifarkam/Desktop/Data_Science/Projects/Repositories/Stocks_Bonds_Mcquarrie_Analysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AEBBD1-A378-4640-9FD4-193665E16DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718469F6-EC57-D946-94D1-9890BFBA1EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="20180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="20180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stocks v Bonds Periods" sheetId="1" r:id="rId1"/>
@@ -315,7 +315,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>From the 'not seasonally adjusted' numbers</t>
+          <t>From the 'not seasonally adjusted' BLS Consumer Price Index for All Urban Consumers numbers</t>
         </r>
       </text>
     </comment>
@@ -484,7 +484,7 @@
     <numFmt numFmtId="165" formatCode="0.00000000"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -530,13 +530,6 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -712,12 +705,12 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1123,7 +1116,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1199,115 +1192,115 @@
       </c>
       <c r="C4" s="2">
         <f>RATE(25,,'Real Returns 1792-2025'!J210,-'Real Returns 1792-2025'!J235)</f>
-        <v>5.2099382840357013E-2</v>
+        <v>5.1864136651233031E-2</v>
       </c>
       <c r="D4" s="2">
         <f>RATE(25,,'Real Returns 1792-2025'!K210,-'Real Returns 1792-2025'!K235)</f>
-        <v>3.2898697621294722E-2</v>
+        <v>3.2667744646386471E-2</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>1.9200685219062291E-2</v>
+        <v>1.919639200484656E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="43">
+      <c r="A5" s="42">
         <v>1793</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="42">
         <v>2025</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="43">
         <f>RATE(232,,'Real Returns 1792-2025'!J3,-'Real Returns 1792-2025'!J235)</f>
-        <v>6.1793401409786126E-2</v>
-      </c>
-      <c r="D5" s="44">
+        <v>6.1767815480094468E-2</v>
+      </c>
+      <c r="D5" s="43">
         <f>RATE(232,,'Real Returns 1792-2025'!K3,-'Real Returns 1792-2025'!K235)</f>
-        <v>3.9535356396241408E-2</v>
-      </c>
-      <c r="E5" s="44">
-        <f t="shared" si="0"/>
-        <v>2.2258045013544718E-2</v>
+        <v>3.951030681644041E-2</v>
+      </c>
+      <c r="E5" s="43">
+        <f t="shared" si="0"/>
+        <v>2.2257508663654058E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="45">
+      <c r="A6" s="44">
         <v>1793</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="44">
         <v>1942</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="45">
         <f>RATE(149,,'Real Returns 1792-2025'!J3,-'Real Returns 1792-2025'!J152)</f>
         <v>5.3550463589011325E-2</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="45">
         <f>RATE(149,,'Real Returns 1792-2025'!K3,-'Real Returns 1792-2025'!K152)</f>
         <v>5.1916700146403157E-2</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="45">
         <f t="shared" si="0"/>
         <v>1.6337634426081687E-3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="45">
+      <c r="A7" s="44">
         <v>1942</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="44">
         <v>2025</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="45">
         <f>RATE(83,,'Real Returns 1792-2025'!J152,-'Real Returns 1792-2025'!J235)</f>
-        <v>7.6753106713136426E-2</v>
-      </c>
-      <c r="D7" s="46">
+        <v>7.6680583370517433E-2</v>
+      </c>
+      <c r="D7" s="45">
         <f>RATE(83,,'Real Returns 1792-2025'!K152,-'Real Returns 1792-2025'!K235)</f>
-        <v>1.7673095768354269E-2</v>
-      </c>
-      <c r="E7" s="46">
-        <f t="shared" si="0"/>
-        <v>5.9080010944782158E-2</v>
+        <v>1.7604551685094335E-2</v>
+      </c>
+      <c r="E7" s="45">
+        <f t="shared" si="0"/>
+        <v>5.9076031685423094E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="45">
+      <c r="A8" s="44">
         <v>1942</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="44">
         <v>1982</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C8" s="46">
         <f>RATE(40,,'Real Returns 1792-2025'!J152,-'Real Returns 1792-2025'!J192)</f>
         <v>6.690855476577387E-2</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="46">
         <f>RATE(40,,'Real Returns 1792-2025'!K152,-'Real Returns 1792-2025'!K192)</f>
         <v>-2.1045299583573766E-2</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="45">
         <f t="shared" si="0"/>
         <v>8.7953854349347632E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="45">
+      <c r="A9" s="44">
         <v>1982</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="44">
         <v>2025</v>
       </c>
-      <c r="C9" s="47">
+      <c r="C9" s="46">
         <f>RATE(43,,'Real Returns 1792-2025'!J192,-'Real Returns 1792-2025'!J235)</f>
-        <v>8.5992364237042526E-2</v>
-      </c>
-      <c r="D9" s="47">
+        <v>8.5851180562127774E-2</v>
+      </c>
+      <c r="D9" s="46">
         <f>RATE(43,,'Real Returns 1792-2025'!K192,-'Real Returns 1792-2025'!K235)</f>
-        <v>5.5063768248560054E-2</v>
-      </c>
-      <c r="E9" s="46">
-        <f t="shared" si="0"/>
-        <v>3.0928595988482473E-2</v>
+        <v>5.4926605424079983E-2</v>
+      </c>
+      <c r="E9" s="45">
+        <f t="shared" si="0"/>
+        <v>3.0924575138047791E-2</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2300,8 +2293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2406,11 +2399,11 @@
       </c>
       <c r="J3" s="2">
         <f>AVERAGE('Real Returns 1792-2025'!$L:$L)</f>
-        <v>6.2788502948706554E-2</v>
+        <v>6.2785760901891377E-2</v>
       </c>
       <c r="K3" s="2">
         <f>AVERAGE('Real Returns 1792-2025'!$M:$M)</f>
-        <v>4.2885687031009416E-2</v>
+        <v>4.2883213667721874E-2</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -2451,11 +2444,11 @@
       </c>
       <c r="J4" s="2">
         <f>AVERAGE('Real Returns 1792-2025'!$N:$N)</f>
-        <v>6.184834435926307E-2</v>
+        <v>6.1847353925529619E-2</v>
       </c>
       <c r="K4" s="2">
         <f>AVERAGE('Real Returns 1792-2025'!$O:$O)</f>
-        <v>4.1827939035677851E-2</v>
+        <v>4.1826987906128932E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -2496,11 +2489,11 @@
       </c>
       <c r="J5" s="2">
         <f>AVERAGE('Real Returns 1792-2025'!$P:$P)</f>
-        <v>6.0820620963663925E-2</v>
+        <v>6.081996089239422E-2</v>
       </c>
       <c r="K5" s="2">
         <f>AVERAGE('Real Returns 1792-2025'!$Q:$Q)</f>
-        <v>3.9474826394361652E-2</v>
+        <v>3.9474192014525733E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -2541,11 +2534,11 @@
       </c>
       <c r="J6" s="2">
         <f>AVERAGE('Real Returns 1792-2025'!$R:$R)</f>
-        <v>6.1973719792752374E-2</v>
+        <v>6.1973269856479725E-2</v>
       </c>
       <c r="K6" s="2">
         <f>AVERAGE('Real Returns 1792-2025'!$S:$S)</f>
-        <v>3.9312545011899666E-2</v>
+        <v>3.9312114753779721E-2</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3548,8 +3541,8 @@
   <dimension ref="A1:S1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M163" sqref="M163"/>
+      <pane ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K232" sqref="K232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17359,60 +17352,60 @@
         <v>2025</v>
       </c>
       <c r="D235" s="41">
-        <v>315.89999999999998</v>
+        <v>317.67099999999999</v>
       </c>
       <c r="E235">
-        <v>1.0242626054983999</v>
+        <v>1.0300048311215011</v>
       </c>
       <c r="F235">
         <v>0.26160903455164708</v>
       </c>
       <c r="G235">
-        <v>0.23172419629412899</v>
+        <v>0.22485739525897963</v>
       </c>
       <c r="H235">
         <v>-7.0091368427013245E-3</v>
       </c>
       <c r="I235">
-        <v>-3.0530981189032635E-2</v>
+        <v>-3.5935722674135917E-2</v>
       </c>
       <c r="J235">
-        <v>1099727.5825945265</v>
+        <v>1093596.6561052501</v>
       </c>
       <c r="K235">
-        <v>8066.952243452889</v>
+        <v>8021.9793865564288</v>
       </c>
       <c r="L235" s="2">
         <f>RATE(10,,J225,-'Real Returns 1792-2025'!$J235)</f>
-        <v>9.4074062604235661E-2</v>
+        <v>9.3462586164452369E-2</v>
       </c>
       <c r="M235" s="2">
         <f>RATE(10,,K225,-'Real Returns 1792-2025'!$K235)</f>
-        <v>-1.313040851882305E-2</v>
+        <v>-1.3681968531945338E-2</v>
       </c>
       <c r="N235" s="2">
         <f>RATE(30,,J205,-'Real Returns 1792-2025'!$J235)</f>
-        <v>7.9018234173736213E-2</v>
+        <v>7.8817176125844851E-2</v>
       </c>
       <c r="O235" s="2">
         <f>RATE(30,,K205,-'Real Returns 1792-2025'!$K235)</f>
-        <v>3.6198679275229163E-2</v>
+        <v>3.6005599976797545E-2</v>
       </c>
       <c r="P235" s="2">
         <f>RATE(50,,J185,-'Real Returns 1792-2025'!$J235)</f>
-        <v>8.0393109582212768E-2</v>
+        <v>8.027231653985574E-2</v>
       </c>
       <c r="Q235" s="2">
         <f>RATE(50,,K185,-'Real Returns 1792-2025'!$K235)</f>
-        <v>3.8341820098393153E-2</v>
+        <v>3.8225728588419883E-2</v>
       </c>
       <c r="R235" s="2">
         <f>RATE(100,,J135,-'Real Returns 1792-2025'!$J235)</f>
-        <v>7.0435218073279598E-2</v>
+        <v>7.0375376549018182E-2</v>
       </c>
       <c r="S235" s="2">
         <f>RATE(100,,K135,-'Real Returns 1792-2025'!$K235)</f>
-        <v>2.3619282266133905E-2</v>
+        <v>2.3562057936181387E-2</v>
       </c>
     </row>
     <row r="236" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -26108,8 +26101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -26559,27 +26552,27 @@
       <c r="A12">
         <v>2025</v>
       </c>
-      <c r="D12" s="42">
-        <v>315.89999999999998</v>
+      <c r="D12" s="47">
+        <v>317.67099999999999</v>
       </c>
       <c r="E12" s="12">
         <f t="shared" ref="E12" si="8">1+(D12-D11)/D11</f>
-        <v>1.0242626054983999</v>
+        <v>1.0300048311215011</v>
       </c>
       <c r="F12" s="12">
         <f t="shared" ref="F12" si="9">E12-1</f>
-        <v>2.426260549839987E-2</v>
+        <v>3.0004831121501097E-2</v>
       </c>
       <c r="G12" s="22">
         <f>VTI!E73-1</f>
         <v>0.26160903455164708</v>
       </c>
       <c r="H12" s="22">
-        <v>0.23172419629412899</v>
+        <v>0.22485739525897963</v>
       </c>
       <c r="I12" s="12">
         <f t="shared" si="1"/>
-        <v>0.23172419629412899</v>
+        <v>0.22485739525897963</v>
       </c>
       <c r="J12" s="30">
         <f>VCLT!E98-1</f>
@@ -26587,15 +26580,15 @@
       </c>
       <c r="K12" s="12">
         <f t="shared" si="2"/>
-        <v>-3.0530981189032635E-2</v>
+        <v>-3.5935722674135917E-2</v>
       </c>
       <c r="L12" s="12">
         <f t="shared" si="3"/>
-        <v>1099727.5825945265</v>
+        <v>1093596.6561052501</v>
       </c>
       <c r="M12" s="12">
         <f t="shared" si="4"/>
-        <v>8066.952243452889</v>
+        <v>8021.9793865564288</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Data/mcquarrie_real_nom_stock_bond_returns_1793_2024.xlsx
+++ b/Data/mcquarrie_real_nom_stock_bond_returns_1793_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cherifarkam/Desktop/Data_Science/Projects/Repositories/Stocks_Bonds_Mcquarrie_Analysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718469F6-EC57-D946-94D1-9890BFBA1EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7F699A-2F04-F841-865C-86DEEF83DB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="20180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="2760" windowWidth="29640" windowHeight="18180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stocks v Bonds Periods" sheetId="1" r:id="rId1"/>
@@ -482,7 +482,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="0.000000000"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -546,7 +546,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -574,12 +574,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,7 +634,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -688,6 +682,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -698,144 +700,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -871,10 +741,10 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Real Returns 1792-2023-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="totalRow" dxfId="14"/>
-      <tableStyleElement type="firstRowStripe" dxfId="13"/>
-      <tableStyleElement type="secondRowStripe" dxfId="12"/>
+      <tableStyleElement type="headerRow" dxfId="3"/>
+      <tableStyleElement type="totalRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1204,101 +1074,101 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="42">
+      <c r="A5" s="36">
         <v>1793</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="36">
         <v>2025</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="37">
         <f>RATE(232,,'Real Returns 1792-2025'!J3,-'Real Returns 1792-2025'!J235)</f>
         <v>6.1767815480094468E-2</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="37">
         <f>RATE(232,,'Real Returns 1792-2025'!K3,-'Real Returns 1792-2025'!K235)</f>
         <v>3.951030681644041E-2</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="37">
         <f t="shared" si="0"/>
         <v>2.2257508663654058E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="44">
+      <c r="A6" s="1">
         <v>1793</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="1">
         <v>1942</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="2">
         <f>RATE(149,,'Real Returns 1792-2025'!J3,-'Real Returns 1792-2025'!J152)</f>
         <v>5.3550463589011325E-2</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="2">
         <f>RATE(149,,'Real Returns 1792-2025'!K3,-'Real Returns 1792-2025'!K152)</f>
         <v>5.1916700146403157E-2</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>1.6337634426081687E-3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="44">
+      <c r="A7" s="1">
         <v>1942</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="1">
         <v>2025</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="2">
         <f>RATE(83,,'Real Returns 1792-2025'!J152,-'Real Returns 1792-2025'!J235)</f>
         <v>7.6680583370517433E-2</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="2">
         <f>RATE(83,,'Real Returns 1792-2025'!K152,-'Real Returns 1792-2025'!K235)</f>
         <v>1.7604551685094335E-2</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>5.9076031685423094E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="44">
+      <c r="A8" s="1">
         <v>1942</v>
       </c>
-      <c r="B8" s="44">
+      <c r="B8" s="1">
         <v>1982</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="19">
         <f>RATE(40,,'Real Returns 1792-2025'!J152,-'Real Returns 1792-2025'!J192)</f>
         <v>6.690855476577387E-2</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="19">
         <f>RATE(40,,'Real Returns 1792-2025'!K152,-'Real Returns 1792-2025'!K192)</f>
         <v>-2.1045299583573766E-2</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>8.7953854349347632E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="44">
+      <c r="A9" s="1">
         <v>1982</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="1">
         <v>2025</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="19">
         <f>RATE(43,,'Real Returns 1792-2025'!J192,-'Real Returns 1792-2025'!J235)</f>
         <v>8.5851180562127774E-2</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="19">
         <f>RATE(43,,'Real Returns 1792-2025'!K192,-'Real Returns 1792-2025'!K235)</f>
         <v>5.4926605424079983E-2</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>3.0924575138047791E-2</v>
       </c>
@@ -2293,8 +2163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2304,32 +2174,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="34" t="s">
+      <c r="C1" s="40"/>
+      <c r="D1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="31" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="31" t="s">
+      <c r="G1" s="40"/>
+      <c r="H1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="31" t="s">
+      <c r="I1" s="40"/>
+      <c r="J1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="32"/>
+      <c r="K1" s="40"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="32"/>
+      <c r="A2" s="40"/>
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
@@ -3540,9 +3410,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K232" sqref="K232"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E235" sqref="E235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17351,7 +17221,7 @@
       <c r="A235">
         <v>2025</v>
       </c>
-      <c r="D235" s="41">
+      <c r="D235" s="43">
         <v>317.67099999999999</v>
       </c>
       <c r="E235">
@@ -24927,14 +24797,14 @@
       <c r="A223" s="1">
         <v>2013</v>
       </c>
-      <c r="B223" s="38">
+      <c r="B223" s="33">
         <v>0.15775745499407878</v>
       </c>
       <c r="C223" s="1">
         <f t="shared" si="1"/>
         <v>8080259.545822477</v>
       </c>
-      <c r="D223" s="38">
+      <c r="D223" s="33">
         <v>5.1664473971355651E-2</v>
       </c>
       <c r="E223" s="1">
@@ -24958,14 +24828,14 @@
       <c r="A224" s="1">
         <v>2014</v>
       </c>
-      <c r="B224" s="38">
+      <c r="B224" s="33">
         <v>0.20058000942358589</v>
       </c>
       <c r="C224" s="1">
         <f t="shared" si="1"/>
         <v>9700998.0816685688</v>
       </c>
-      <c r="D224" s="38">
+      <c r="D224" s="33">
         <v>-8.9229072669816389E-3</v>
       </c>
       <c r="E224" s="1">
@@ -24989,14 +24859,14 @@
       <c r="A225" s="1">
         <v>2015</v>
       </c>
-      <c r="B225" s="38">
+      <c r="B225" s="33">
         <v>0.10830434019191082</v>
       </c>
       <c r="C225" s="1">
         <f t="shared" si="1"/>
         <v>10751658.278106676</v>
       </c>
-      <c r="D225" s="38">
+      <c r="D225" s="33">
         <v>0.20314425527332758</v>
       </c>
       <c r="E225" s="1">
@@ -25020,14 +24890,14 @@
       <c r="A226" s="1">
         <v>2016</v>
       </c>
-      <c r="B226" s="38">
+      <c r="B226" s="33">
         <v>-4.704592835066157E-2</v>
       </c>
       <c r="C226" s="1">
         <f t="shared" si="1"/>
         <v>10245836.533104073</v>
       </c>
-      <c r="D226" s="38">
+      <c r="D226" s="33">
         <v>-5.9782629879025384E-2</v>
       </c>
       <c r="E226" s="1">
@@ -25051,14 +24921,14 @@
       <c r="A227" s="1">
         <v>2017</v>
       </c>
-      <c r="B227" s="38">
+      <c r="B227" s="33">
         <v>0.22160152953166512</v>
       </c>
       <c r="C227" s="1">
         <f t="shared" si="1"/>
         <v>12516329.580171349</v>
       </c>
-      <c r="D227" s="38">
+      <c r="D227" s="33">
         <v>5.7680873585996162E-2</v>
       </c>
       <c r="E227" s="1">
@@ -25082,14 +24952,14 @@
       <c r="A228" s="1">
         <v>2018</v>
       </c>
-      <c r="B228" s="38">
+      <c r="B228" s="33">
         <v>0.24016311565849247</v>
       </c>
       <c r="C228" s="1">
         <f t="shared" si="1"/>
         <v>15522290.28875385</v>
       </c>
-      <c r="D228" s="38">
+      <c r="D228" s="33">
         <v>9.74648344132516E-2</v>
       </c>
       <c r="E228" s="1">
@@ -25113,14 +24983,14 @@
       <c r="A229" s="1">
         <v>2019</v>
       </c>
-      <c r="B229" s="38">
+      <c r="B229" s="33">
         <v>-2.9243741608885987E-2</v>
       </c>
       <c r="C229" s="1">
         <f t="shared" si="1"/>
         <v>15068360.442371413</v>
       </c>
-      <c r="D229" s="38">
+      <c r="D229" s="33">
         <v>3.4088914265142378E-3</v>
       </c>
       <c r="E229" s="1">
@@ -25144,14 +25014,14 @@
       <c r="A230" s="1">
         <v>2020</v>
       </c>
-      <c r="B230" s="38">
+      <c r="B230" s="33">
         <v>0.20314710473443753</v>
       </c>
       <c r="C230" s="1">
         <f t="shared" si="1"/>
         <v>18129454.239334095</v>
       </c>
-      <c r="D230" s="38">
+      <c r="D230" s="33">
         <v>0.23662630929759287</v>
       </c>
       <c r="E230" s="1">
@@ -25175,14 +25045,14 @@
       <c r="A231" s="1">
         <v>2021</v>
       </c>
-      <c r="B231" s="38">
+      <c r="B231" s="33">
         <v>0.20696277508645222</v>
       </c>
       <c r="C231" s="1">
         <f t="shared" si="1"/>
         <v>21881576.399509527</v>
       </c>
-      <c r="D231" s="38">
+      <c r="D231" s="33">
         <v>6.0319280871703462E-2</v>
       </c>
       <c r="E231" s="1">
@@ -25206,14 +25076,14 @@
       <c r="A232" s="1">
         <v>2022</v>
       </c>
-      <c r="B232" s="38">
+      <c r="B232" s="33">
         <v>0.18450548544115408</v>
       </c>
       <c r="C232" s="1">
         <f t="shared" si="1"/>
         <v>25918847.275318734</v>
       </c>
-      <c r="D232" s="38">
+      <c r="D232" s="33">
         <v>-3.9667688252602473E-2</v>
       </c>
       <c r="E232" s="1">
@@ -25237,14 +25107,14 @@
       <c r="A233" s="1">
         <v>2023</v>
       </c>
-      <c r="B233" s="38">
+      <c r="B233" s="33">
         <v>-8.386141598114194E-2</v>
       </c>
       <c r="C233" s="1">
         <f t="shared" si="1"/>
         <v>23745256.042211544</v>
       </c>
-      <c r="D233" s="38">
+      <c r="D233" s="33">
         <v>-0.15556079471790241</v>
       </c>
       <c r="E233" s="1">
@@ -25268,14 +25138,14 @@
       <c r="A234">
         <v>2024</v>
       </c>
-      <c r="B234" s="39">
+      <c r="B234" s="34">
         <v>0.19211714315685779</v>
       </c>
       <c r="C234" s="1">
         <f t="shared" si="1"/>
         <v>28307126.79656934</v>
       </c>
-      <c r="D234" s="40">
+      <c r="D234" s="35">
         <v>2.4268401375737492E-2</v>
       </c>
       <c r="E234" s="1">
@@ -25299,14 +25169,14 @@
       <c r="A235">
         <v>2025</v>
       </c>
-      <c r="B235" s="40">
+      <c r="B235" s="35">
         <v>0.26160903455165002</v>
       </c>
       <c r="C235" s="1">
         <f t="shared" si="1"/>
         <v>35712526.908750989</v>
       </c>
-      <c r="D235" s="40">
+      <c r="D235" s="35">
         <v>-7.0091368427013245E-3</v>
       </c>
       <c r="E235" s="1">
@@ -26552,7 +26422,7 @@
       <c r="A12">
         <v>2025</v>
       </c>
-      <c r="D12" s="47">
+      <c r="D12" s="38">
         <v>317.67099999999999</v>
       </c>
       <c r="E12" s="12">
@@ -28418,7 +28288,7 @@
         <f>PRODUCT(D26:D37)</f>
         <v>1.1845054854411541</v>
       </c>
-      <c r="F37" s="36">
+      <c r="F37" s="32">
         <v>17200.84</v>
       </c>
       <c r="G37" s="12">
@@ -28458,7 +28328,7 @@
         <f t="shared" si="0"/>
         <v>0.97513337154446467</v>
       </c>
-      <c r="F38" s="35">
+      <c r="F38" s="31">
         <v>16773.11</v>
       </c>
       <c r="G38" s="1">
@@ -28479,7 +28349,7 @@
         <f t="shared" si="0"/>
         <v>1.0326437797471093</v>
       </c>
-      <c r="F39" s="35">
+      <c r="F39" s="31">
         <v>17320.650000000001</v>
       </c>
       <c r="G39" s="1">
@@ -28500,7 +28370,7 @@
         <f t="shared" si="0"/>
         <v>0.90868362103043876</v>
       </c>
-      <c r="F40" s="35">
+      <c r="F40" s="31">
         <v>15738.99</v>
       </c>
       <c r="G40" s="1">
@@ -28521,7 +28391,7 @@
         <f t="shared" si="0"/>
         <v>0.99748646558391352</v>
       </c>
-      <c r="F41" s="35">
+      <c r="F41" s="31">
         <v>15699.43</v>
       </c>
       <c r="G41" s="1">
@@ -28542,7 +28412,7 @@
         <f t="shared" si="0"/>
         <v>0.91765447668315114</v>
       </c>
-      <c r="F42" s="35">
+      <c r="F42" s="31">
         <v>14406.65</v>
       </c>
       <c r="G42" s="1">
@@ -28563,7 +28433,7 @@
         <f t="shared" si="0"/>
         <v>1.0934683490616053</v>
       </c>
-      <c r="F43" s="35">
+      <c r="F43" s="31">
         <v>15753.22</v>
       </c>
       <c r="G43" s="1">
@@ -28584,7 +28454,7 @@
         <f t="shared" si="0"/>
         <v>0.96271515151515141</v>
       </c>
-      <c r="F44" s="35">
+      <c r="F44" s="31">
         <v>15165.86</v>
       </c>
       <c r="G44" s="1">
@@ -28605,7 +28475,7 @@
         <f t="shared" si="0"/>
         <v>0.90776242588228639</v>
       </c>
-      <c r="F45" s="35">
+      <c r="F45" s="31">
         <v>13767</v>
       </c>
       <c r="G45" s="1">
@@ -28626,7 +28496,7 @@
         <f t="shared" si="0"/>
         <v>1.0811277650860871</v>
       </c>
-      <c r="F46" s="35">
+      <c r="F46" s="31">
         <v>14883.89</v>
       </c>
       <c r="G46" s="1">
@@ -28647,7 +28517,7 @@
         <f t="shared" si="0"/>
         <v>1.0516930371592019</v>
       </c>
-      <c r="F47" s="35">
+      <c r="F47" s="31">
         <v>15653.28</v>
       </c>
       <c r="G47" s="1">
@@ -28668,7 +28538,7 @@
         <f t="shared" si="0"/>
         <v>0.94151235024346447</v>
       </c>
-      <c r="F48" s="35">
+      <c r="F48" s="31">
         <v>14737.76</v>
       </c>
       <c r="G48" s="1">
@@ -28693,7 +28563,7 @@
         <f>PRODUCT(D38:D49)</f>
         <v>0.91613858401885806</v>
       </c>
-      <c r="F49" s="36">
+      <c r="F49" s="32">
         <v>15758.35</v>
       </c>
       <c r="G49" s="12">
@@ -29017,10 +28887,10 @@
       <c r="B62">
         <v>2</v>
       </c>
-      <c r="C62" s="37">
+      <c r="C62" s="20">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="D62" s="37">
+      <c r="D62" s="20">
         <f t="shared" si="0"/>
         <v>1.0529999999999999</v>
       </c>
@@ -29028,7 +28898,7 @@
         <f t="shared" si="1"/>
         <v>19781.446539557761</v>
       </c>
-      <c r="G62" s="37">
+      <c r="G62" s="20">
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
@@ -29039,10 +28909,10 @@
       <c r="B63">
         <v>3</v>
       </c>
-      <c r="C63" s="37">
+      <c r="C63" s="20">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="D63" s="37">
+      <c r="D63" s="20">
         <f t="shared" si="0"/>
         <v>1.0326</v>
       </c>
@@ -29050,7 +28920,7 @@
         <f t="shared" si="1"/>
         <v>20426.321696747342</v>
       </c>
-      <c r="G63" s="37">
+      <c r="G63" s="20">
         <v>3.2599999999999997E-2</v>
       </c>
     </row>
@@ -29061,10 +28931,10 @@
       <c r="B64">
         <v>4</v>
       </c>
-      <c r="C64" s="37">
+      <c r="C64" s="20">
         <v>-4.3400000000000001E-2</v>
       </c>
-      <c r="D64" s="37">
+      <c r="D64" s="20">
         <f t="shared" si="0"/>
         <v>0.95660000000000001</v>
       </c>
@@ -29072,7 +28942,7 @@
         <f t="shared" si="1"/>
         <v>19539.819335108506</v>
       </c>
-      <c r="G64" s="37">
+      <c r="G64" s="20">
         <v>-4.3400000000000001E-2</v>
       </c>
     </row>
@@ -29083,10 +28953,10 @@
       <c r="B65">
         <v>5</v>
       </c>
-      <c r="C65" s="37">
+      <c r="C65" s="20">
         <v>4.7600000000000003E-2</v>
       </c>
-      <c r="D65" s="37">
+      <c r="D65" s="20">
         <f t="shared" si="0"/>
         <v>1.0476000000000001</v>
       </c>
@@ -29094,7 +28964,7 @@
         <f t="shared" si="1"/>
         <v>20469.914735459672</v>
       </c>
-      <c r="G65" s="37">
+      <c r="G65" s="20">
         <v>4.7600000000000003E-2</v>
       </c>
     </row>
@@ -29105,10 +28975,10 @@
       <c r="B66">
         <v>6</v>
       </c>
-      <c r="C66" s="37">
+      <c r="C66" s="20">
         <v>3.0800000000000001E-2</v>
       </c>
-      <c r="D66" s="37">
+      <c r="D66" s="20">
         <f t="shared" si="0"/>
         <v>1.0307999999999999</v>
       </c>
@@ -29116,7 +28986,7 @@
         <f t="shared" si="1"/>
         <v>21100.388109311829</v>
       </c>
-      <c r="G66" s="37">
+      <c r="G66" s="20">
         <v>3.0800000000000001E-2</v>
       </c>
     </row>
@@ -29127,10 +28997,10 @@
       <c r="B67">
         <v>7</v>
       </c>
-      <c r="C67" s="37">
+      <c r="C67" s="20">
         <v>1.89E-2</v>
       </c>
-      <c r="D67" s="37">
+      <c r="D67" s="20">
         <f t="shared" si="0"/>
         <v>1.0188999999999999</v>
       </c>
@@ -29138,7 +29008,7 @@
         <f t="shared" si="1"/>
         <v>21499.185444577819</v>
       </c>
-      <c r="G67" s="37">
+      <c r="G67" s="20">
         <v>1.89E-2</v>
       </c>
     </row>
@@ -29149,10 +29019,10 @@
       <c r="B68">
         <v>8</v>
       </c>
-      <c r="C68" s="37">
+      <c r="C68" s="20">
         <v>2.1299999999999999E-2</v>
       </c>
-      <c r="D68" s="37">
+      <c r="D68" s="20">
         <f t="shared" si="0"/>
         <v>1.0213000000000001</v>
       </c>
@@ -29160,7 +29030,7 @@
         <f t="shared" si="1"/>
         <v>21957.118094547328</v>
       </c>
-      <c r="G68" s="37">
+      <c r="G68" s="20">
         <v>2.1299999999999999E-2</v>
       </c>
     </row>
@@ -29171,10 +29041,10 @@
       <c r="B69">
         <v>9</v>
       </c>
-      <c r="C69" s="37">
+      <c r="C69" s="20">
         <v>2.0299999999999999E-2</v>
       </c>
-      <c r="D69" s="37">
+      <c r="D69" s="20">
         <f t="shared" si="0"/>
         <v>1.0203</v>
       </c>
@@ -29182,7 +29052,7 @@
         <f t="shared" si="1"/>
         <v>22402.847591866637</v>
       </c>
-      <c r="G69" s="37">
+      <c r="G69" s="20">
         <v>2.0299999999999999E-2</v>
       </c>
     </row>
@@ -29193,10 +29063,10 @@
       <c r="B70">
         <v>10</v>
       </c>
-      <c r="C70" s="37">
+      <c r="C70" s="20">
         <v>-7.4999999999999997E-3</v>
       </c>
-      <c r="D70" s="37">
+      <c r="D70" s="20">
         <f t="shared" si="0"/>
         <v>0.99250000000000005</v>
       </c>
@@ -29204,7 +29074,7 @@
         <f t="shared" si="1"/>
         <v>22234.826234927637</v>
       </c>
-      <c r="G70" s="37">
+      <c r="G70" s="20">
         <v>-7.4999999999999997E-3</v>
       </c>
     </row>
@@ -29215,10 +29085,10 @@
       <c r="B71">
         <v>11</v>
       </c>
-      <c r="C71" s="37">
+      <c r="C71" s="20">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="D71" s="37">
+      <c r="D71" s="20">
         <f t="shared" si="0"/>
         <v>1.0669999999999999</v>
       </c>
@@ -29226,7 +29096,7 @@
         <f t="shared" si="1"/>
         <v>23724.559592667789</v>
       </c>
-      <c r="G71" s="37">
+      <c r="G71" s="20">
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
@@ -29237,10 +29107,10 @@
       <c r="B72">
         <v>12</v>
       </c>
-      <c r="C72" s="37">
+      <c r="C72" s="20">
         <v>-3.04E-2</v>
       </c>
-      <c r="D72" s="37">
+      <c r="D72" s="20">
         <f t="shared" si="0"/>
         <v>0.96960000000000002</v>
       </c>
@@ -29248,7 +29118,7 @@
         <f t="shared" si="1"/>
         <v>23003.332981050688</v>
       </c>
-      <c r="G72" s="37">
+      <c r="G72" s="20">
         <v>-3.04E-2</v>
       </c>
     </row>
@@ -32004,7 +31874,7 @@
         <v>-2.8500000000000001E-2</v>
       </c>
       <c r="D78" s="15">
-        <f t="shared" ref="D78:D98" si="2">C78+1</f>
+        <f t="shared" ref="D78:D97" si="2">C78+1</f>
         <v>0.97150000000000003</v>
       </c>
       <c r="E78" s="19"/>
